--- a/help_desk/excel_OSeguimiento.xlsx
+++ b/help_desk/excel_OSeguimiento.xlsx
@@ -35,19 +35,19 @@
     <t>ATENCIÓN</t>
   </si>
   <si>
-    <t>400LIA000/0001/2018</t>
-  </si>
-  <si>
-    <t>2018-11-08</t>
-  </si>
-  <si>
-    <t>TELEFONIA</t>
-  </si>
-  <si>
-    <t>2018-11-12 13:26:00</t>
-  </si>
-  <si>
-    <t>ABRAHAM</t>
+    <t>400LIA000/0002/2018</t>
+  </si>
+  <si>
+    <t>2018-11-26</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>2018-11-27 05:16:00</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
   </si>
 </sst>
 </file>
